--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_8_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_8_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.810110560321945, 50.08271641123275]</t>
+          <t>[49.81015528245323, 50.08267168910147]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.86130842761332, 50.049143397360886]</t>
+          <t>[49.86131755371875, 50.049134271255454]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.85512551223647, 50.15234043975278]</t>
+          <t>[49.85183558924748, 50.15563036274177]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.95074906497389, 50.11444429676001]</t>
+          <t>[49.95073208067164, 50.11446128106226]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.940305962899394, 50.23875313720887]</t>
+          <t>[49.94788814097688, 50.23117095913138]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90098680603887, 50.05273791967433]</t>
+          <t>[49.90100364296392, 50.05272108274928]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.84890801558207, 50.115485917792924]</t>
+          <t>[49.84571343736905, 50.11868049600594]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.94802416586873, 50.10593807663945]</t>
+          <t>[49.94803758169328, 50.1059246608149]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.946251762456555, 50.18487646685561]</t>
+          <t>[49.9471566435129, 50.18397158579927]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.89434069088495, 50.05663596517525]</t>
+          <t>[49.89451467942269, 50.056461976637515]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.82272594614488, 50.11779634971733]</t>
+          <t>[49.82348890073211, 50.1170333951301]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.91497393989568, 50.07634945950195]</t>
+          <t>[49.915138467005455, 50.076184932392174]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.822872132066685, 50.15835289720277]</t>
+          <t>[49.82918872758348, 50.152036301685975]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.918133214961074, 50.08902150048371]</t>
+          <t>[49.91821791307012, 50.08893680237466]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.808959751691646, 50.10001465475263]</t>
+          <t>[49.808589612522795, 50.10038479392148]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.91341447019449, 50.07542991012607]</t>
+          <t>[49.91323125039128, 50.07561312992928]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.00524054450374, 50.234968719025254]</t>
+          <t>[50.004311065489325, 50.23589819803967]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.90957356535332, 50.063527554960835]</t>
+          <t>[49.90952232740756, 50.0635787929066]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.726258797482664, 50.07215983686732]</t>
+          <t>[49.72734805167844, 50.071070582671545]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.87722334602612, 50.060505372396584]</t>
+          <t>[49.8771789927341, 50.0605497256886]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.855961248668564, 50.19483393522667]</t>
+          <t>[49.85223464601765, 50.19856053787758]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.93041228534934, 50.10740383754611]</t>
+          <t>[49.93030652603219, 50.10750959686326]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.94816858523714, 50.19615626872617]</t>
+          <t>[49.94492463672572, 50.19940021723759]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.89110556307496, 50.044036922216975]</t>
+          <t>[49.89102295926903, 50.044119526022904]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.87545602610518, 50.13459470791907]</t>
+          <t>[49.87554831092492, 50.13450242309933]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.97361287512592, 50.13536080962983]</t>
+          <t>[49.97364005219648, 50.135333632559274]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.86915341059863, 50.178126700267626]</t>
+          <t>[49.86684778423538, 50.18043232663087]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.901129046428856, 50.064563565230635]</t>
+          <t>[49.901138444052684, 50.06455416760681]</t>
         </is>
       </c>
       <c r="V15" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_8_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_8_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.81015528245323, 50.08267168910147]</t>
+          <t>[49.81006767647262, 50.08275929508208]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.86131755371875, 50.049134271255454]</t>
+          <t>[49.861270470529405, 50.0491813544448]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.85183558924748, 50.15563036274177]</t>
+          <t>[49.85527024299725, 50.152195708992]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.95073208067164, 50.11446128106226]</t>
+          <t>[49.95067493356787, 50.114518428166036]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.94788814097688, 50.23117095913138]</t>
+          <t>[49.94192491674098, 50.23713418336728]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90100364296392, 50.05272108274928]</t>
+          <t>[49.90089371556669, 50.05283101014651]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.84571343736905, 50.11868049600594]</t>
+          <t>[49.84665023732611, 50.11774369604888]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.94803758169328, 50.1059246608149]</t>
+          <t>[49.947949921678536, 50.10601232082964]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.9471566435129, 50.18397158579927]</t>
+          <t>[49.94641178330977, 50.1847164460024]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.89451467942269, 50.056461976637515]</t>
+          <t>[49.89458346264862, 50.05639319341159]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.82348890073211, 50.1170333951301]</t>
+          <t>[49.82306216259551, 50.1174601332667]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.915138467005455, 50.076184932392174]</t>
+          <t>[49.914985660010274, 50.076337739387355]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.82918872758348, 50.152036301685975]</t>
+          <t>[49.8277386065848, 50.15348642268465]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.91821791307012, 50.08893680237466]</t>
+          <t>[49.91820510725994, 50.08894960818484]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.808589612522795, 50.10038479392148]</t>
+          <t>[49.80440090213516, 50.104573504309116]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.91323125039128, 50.07561312992928]</t>
+          <t>[49.91338549627634, 50.07545888404422]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[50.004311065489325, 50.23589819803967]</t>
+          <t>[50.00319199512207, 50.23701726840692]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.90952232740756, 50.0635787929066]</t>
+          <t>[49.909564914265765, 50.06353620604839]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.72734805167844, 50.071070582671545]</t>
+          <t>[49.72776988322274, 50.070648751127244]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.8771789927341, 50.0605497256886]</t>
+          <t>[49.87734779914379, 50.06038091927891]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.85223464601765, 50.19856053787758]</t>
+          <t>[49.85972466667697, 50.191070517218265]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.93030652603219, 50.10750959686326]</t>
+          <t>[49.930394680628616, 50.10742144226683]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.94492463672572, 50.19940021723759]</t>
+          <t>[49.94843341760397, 50.19589143635934]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.89102295926903, 50.044119526022904]</t>
+          <t>[49.891033185202886, 50.04410930008905]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.87554831092492, 50.13450242309933]</t>
+          <t>[49.87521636861991, 50.13483436540434]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.97364005219648, 50.135333632559274]</t>
+          <t>[49.97377955775717, 50.135194126998584]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.86684778423538, 50.18043232663087]</t>
+          <t>[49.86824550011017, 50.179034610756084]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.901138444052684, 50.06455416760681]</t>
+          <t>[49.90103376367152, 50.06465884798797]</t>
         </is>
       </c>
       <c r="V15" t="n">
